--- a/ExportedFolder/1.png_1-1.xlsx
+++ b/ExportedFolder/1.png_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
@@ -115,13 +115,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>12/9/2019</x:t>
+    <x:t>2019-12-09</x:t>
   </x:si>
   <x:si>
     <x:t>[123456]</x:t>
   </x:si>
   <x:si>
-    <x:t>$971.56</x:t>
+    <x:t>971.56</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
@@ -129,9 +129,6 @@
   <x:si>
     <x:t>Key,Value
 "Address Line 1","[Street Address] [City ST ZIP]"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-12-09</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
@@ -225,7 +222,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="32">
+  <x:cellStyleXfs count="36">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -762,6 +771,12 @@
       <x:c r="B2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -948,9 +963,14 @@
       <x:c r="B2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C2" s="1" t="s"/>
+      <x:c r="C2" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>31</x:v>
@@ -1008,63 +1028,63 @@
   <x:sheetData>
     <x:row r="1" spans="1:14">
       <x:c r="A1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="I1" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
+      <x:c r="N1" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>31</x:v>
@@ -1072,19 +1092,19 @@
     </x:row>
     <x:row r="3" spans="1:14">
       <x:c r="A3" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>31</x:v>
@@ -1092,19 +1112,19 @@
     </x:row>
     <x:row r="4" spans="1:14">
       <x:c r="A4" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
         <x:v>31</x:v>
@@ -1132,63 +1152,63 @@
   <x:sheetData>
     <x:row r="1" spans="1:14">
       <x:c r="A1" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="I1" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K1" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L1" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="M1" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="J1" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="K1" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="L1" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="M1" s="0" t="s">
+      <x:c r="N1" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="N1" s="0" t="s">
-        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14">
       <x:c r="A2" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="K2" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="L2" s="0" t="s">
         <x:v>31</x:v>
@@ -1196,19 +1216,19 @@
     </x:row>
     <x:row r="3" spans="1:14">
       <x:c r="A3" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="K3" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="L3" s="0" t="s">
         <x:v>31</x:v>
@@ -1216,19 +1236,19 @@
     </x:row>
     <x:row r="4" spans="1:14">
       <x:c r="A4" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
       <x:c r="H4" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="K4" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="L4" s="0" t="s">
         <x:v>31</x:v>
